--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vcan-Selp.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vcan-Selp.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.204747333333333</v>
+        <v>3.262296333333333</v>
       </c>
       <c r="H2">
-        <v>9.614241999999999</v>
+        <v>9.786889</v>
       </c>
       <c r="I2">
-        <v>0.01973032100547388</v>
+        <v>0.01915820289899999</v>
       </c>
       <c r="J2">
-        <v>0.01973032100547387</v>
+        <v>0.01915820289899999</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.960008</v>
+        <v>35.585194</v>
       </c>
       <c r="N2">
-        <v>47.880024</v>
+        <v>106.755582</v>
       </c>
       <c r="O2">
-        <v>0.9899803616776065</v>
+        <v>0.9972091466993565</v>
       </c>
       <c r="P2">
-        <v>0.9899803616776066</v>
+        <v>0.9972091466993567</v>
       </c>
       <c r="Q2">
-        <v>51.14779307797866</v>
+        <v>116.0894479071553</v>
       </c>
       <c r="R2">
-        <v>460.3301377018079</v>
+        <v>1044.805031164398</v>
       </c>
       <c r="S2">
-        <v>0.01953263032501431</v>
+        <v>0.01910473516520492</v>
       </c>
       <c r="T2">
-        <v>0.01953263032501431</v>
+        <v>0.01910473516520492</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.204747333333333</v>
+        <v>3.262296333333333</v>
       </c>
       <c r="H3">
-        <v>9.614241999999999</v>
+        <v>9.786889</v>
       </c>
       <c r="I3">
-        <v>0.01973032100547388</v>
+        <v>0.01915820289899999</v>
       </c>
       <c r="J3">
-        <v>0.01973032100547387</v>
+        <v>0.01915820289899999</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,28 +617,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.09955433333333334</v>
+        <v>0.093901</v>
       </c>
       <c r="N3">
-        <v>0.298663</v>
+        <v>0.281703</v>
       </c>
       <c r="O3">
-        <v>0.006175237187845165</v>
+        <v>0.002631401590341653</v>
       </c>
       <c r="P3">
-        <v>0.006175237187845166</v>
+        <v>0.002631401590341654</v>
       </c>
       <c r="Q3">
-        <v>0.3190464842717778</v>
+        <v>0.3063328879963333</v>
       </c>
       <c r="R3">
-        <v>2.871418358446</v>
+        <v>2.756995991967</v>
       </c>
       <c r="S3">
-        <v>0.0001218394120011249</v>
+        <v>5.041292557651665E-05</v>
       </c>
       <c r="T3">
-        <v>0.0001218394120011249</v>
+        <v>5.041292557651666E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.204747333333333</v>
+        <v>3.262296333333333</v>
       </c>
       <c r="H4">
-        <v>9.614241999999999</v>
+        <v>9.786889</v>
       </c>
       <c r="I4">
-        <v>0.01973032100547388</v>
+        <v>0.01915820289899999</v>
       </c>
       <c r="J4">
-        <v>0.01973032100547387</v>
+        <v>0.01915820289899999</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.06197766666666667</v>
+        <v>0.00569</v>
       </c>
       <c r="N4">
-        <v>0.185933</v>
+        <v>0.01707</v>
       </c>
       <c r="O4">
-        <v>0.003844401134548354</v>
+        <v>0.0001594517103017434</v>
       </c>
       <c r="P4">
-        <v>0.003844401134548355</v>
+        <v>0.0001594517103017434</v>
       </c>
       <c r="Q4">
-        <v>0.1986227619762222</v>
+        <v>0.01856246613666667</v>
       </c>
       <c r="R4">
-        <v>1.787604857786</v>
+        <v>0.16706219523</v>
       </c>
       <c r="S4">
-        <v>7.585126845844699E-05</v>
+        <v>3.054808218553367E-06</v>
       </c>
       <c r="T4">
-        <v>7.585126845844699E-05</v>
+        <v>3.054808218553368E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>435.6423490000001</v>
       </c>
       <c r="I5">
-        <v>0.8940240311559333</v>
+        <v>0.8527862647199704</v>
       </c>
       <c r="J5">
-        <v>0.8940240311559333</v>
+        <v>0.8527862647199704</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.960008</v>
+        <v>35.585194</v>
       </c>
       <c r="N5">
-        <v>47.880024</v>
+        <v>106.755582</v>
       </c>
       <c r="O5">
-        <v>0.9899803616776065</v>
+        <v>0.9972091466993565</v>
       </c>
       <c r="P5">
-        <v>0.9899803616776066</v>
+        <v>0.9972091466993567</v>
       </c>
       <c r="Q5">
-        <v>2317.618458392931</v>
+        <v>5167.472501260236</v>
       </c>
       <c r="R5">
-        <v>20858.56612553638</v>
+        <v>46507.25251134213</v>
       </c>
       <c r="S5">
-        <v>0.8850662337122226</v>
+        <v>0.8504062633583332</v>
       </c>
       <c r="T5">
-        <v>0.8850662337122227</v>
+        <v>0.8504062633583334</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>435.6423490000001</v>
       </c>
       <c r="I6">
-        <v>0.8940240311559333</v>
+        <v>0.8527862647199704</v>
       </c>
       <c r="J6">
-        <v>0.8940240311559333</v>
+        <v>0.8527862647199704</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.09955433333333334</v>
+        <v>0.093901</v>
       </c>
       <c r="N6">
-        <v>0.298663</v>
+        <v>0.281703</v>
       </c>
       <c r="O6">
-        <v>0.006175237187845165</v>
+        <v>0.002631401590341653</v>
       </c>
       <c r="P6">
-        <v>0.006175237187845166</v>
+        <v>0.002631401590341654</v>
       </c>
       <c r="Q6">
-        <v>14.45669454215411</v>
+        <v>13.63575073781633</v>
       </c>
       <c r="R6">
-        <v>130.110250879387</v>
+        <v>122.721756640347</v>
       </c>
       <c r="S6">
-        <v>0.005520810444021364</v>
+        <v>0.002244023133205648</v>
       </c>
       <c r="T6">
-        <v>0.005520810444021364</v>
+        <v>0.002244023133205649</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,40 +853,40 @@
         <v>435.6423490000001</v>
       </c>
       <c r="I7">
-        <v>0.8940240311559333</v>
+        <v>0.8527862647199704</v>
       </c>
       <c r="J7">
-        <v>0.8940240311559333</v>
+        <v>0.8527862647199704</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.06197766666666667</v>
+        <v>0.00569</v>
       </c>
       <c r="N7">
-        <v>0.185933</v>
+        <v>0.01707</v>
       </c>
       <c r="O7">
-        <v>0.003844401134548354</v>
+        <v>0.0001594517103017434</v>
       </c>
       <c r="P7">
-        <v>0.003844401134548355</v>
+        <v>0.0001594517103017434</v>
       </c>
       <c r="Q7">
-        <v>9.000032097401892</v>
+        <v>0.8262683219366668</v>
       </c>
       <c r="R7">
-        <v>81.00028887661702</v>
+        <v>7.436414897430001</v>
       </c>
       <c r="S7">
-        <v>0.003436986999689363</v>
+        <v>0.0001359782284314346</v>
       </c>
       <c r="T7">
-        <v>0.003436986999689363</v>
+        <v>0.0001359782284314346</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.203389</v>
+        <v>21.305189</v>
       </c>
       <c r="H8">
-        <v>39.610167</v>
+        <v>63.915567</v>
       </c>
       <c r="I8">
-        <v>0.08128787583986634</v>
+        <v>0.1251171236325075</v>
       </c>
       <c r="J8">
-        <v>0.08128787583986634</v>
+        <v>0.1251171236325075</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>15.960008</v>
+        <v>35.585194</v>
       </c>
       <c r="N8">
-        <v>47.880024</v>
+        <v>106.755582</v>
       </c>
       <c r="O8">
-        <v>0.9899803616776065</v>
+        <v>0.9972091466993565</v>
       </c>
       <c r="P8">
-        <v>0.9899803616776066</v>
+        <v>0.9972091466993567</v>
       </c>
       <c r="Q8">
-        <v>210.726194067112</v>
+        <v>758.149283771666</v>
       </c>
       <c r="R8">
-        <v>1896.535746604008</v>
+        <v>6823.343553944994</v>
       </c>
       <c r="S8">
-        <v>0.08047340072395524</v>
+        <v>0.1247679400950507</v>
       </c>
       <c r="T8">
-        <v>0.08047340072395526</v>
+        <v>0.1247679400950508</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.203389</v>
+        <v>21.305189</v>
       </c>
       <c r="H9">
-        <v>39.610167</v>
+        <v>63.915567</v>
       </c>
       <c r="I9">
-        <v>0.08128787583986634</v>
+        <v>0.1251171236325075</v>
       </c>
       <c r="J9">
-        <v>0.08128787583986634</v>
+        <v>0.1251171236325075</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.09955433333333334</v>
+        <v>0.093901</v>
       </c>
       <c r="N9">
-        <v>0.298663</v>
+        <v>0.281703</v>
       </c>
       <c r="O9">
-        <v>0.006175237187845165</v>
+        <v>0.002631401590341653</v>
       </c>
       <c r="P9">
-        <v>0.006175237187845166</v>
+        <v>0.002631401590341654</v>
       </c>
       <c r="Q9">
-        <v>1.314454589635667</v>
+        <v>2.000578552289</v>
       </c>
       <c r="R9">
-        <v>11.830091306721</v>
+        <v>18.005206970601</v>
       </c>
       <c r="S9">
-        <v>0.0005019719138072831</v>
+        <v>0.0003292333981055536</v>
       </c>
       <c r="T9">
-        <v>0.0005019719138072832</v>
+        <v>0.0003292333981055537</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.203389</v>
+        <v>21.305189</v>
       </c>
       <c r="H10">
-        <v>39.610167</v>
+        <v>63.915567</v>
       </c>
       <c r="I10">
-        <v>0.08128787583986634</v>
+        <v>0.1251171236325075</v>
       </c>
       <c r="J10">
-        <v>0.08128787583986634</v>
+        <v>0.1251171236325075</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.06197766666666667</v>
+        <v>0.00569</v>
       </c>
       <c r="N10">
-        <v>0.185933</v>
+        <v>0.01707</v>
       </c>
       <c r="O10">
-        <v>0.003844401134548354</v>
+        <v>0.0001594517103017434</v>
       </c>
       <c r="P10">
-        <v>0.003844401134548355</v>
+        <v>0.0001594517103017434</v>
       </c>
       <c r="Q10">
-        <v>0.8183152423123335</v>
+        <v>0.12122652541</v>
       </c>
       <c r="R10">
-        <v>7.364837180811001</v>
+        <v>1.09103872869</v>
       </c>
       <c r="S10">
-        <v>0.0003125032021038079</v>
+        <v>1.995013935123801E-05</v>
       </c>
       <c r="T10">
-        <v>0.0003125032021038079</v>
+        <v>1.995013935123801E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.8052786666666667</v>
+        <v>0.500358</v>
       </c>
       <c r="H11">
-        <v>2.415836</v>
+        <v>1.501074</v>
       </c>
       <c r="I11">
-        <v>0.004957771998726472</v>
+        <v>0.002938408748521978</v>
       </c>
       <c r="J11">
-        <v>0.004957771998726472</v>
+        <v>0.002938408748521978</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.960008</v>
+        <v>35.585194</v>
       </c>
       <c r="N11">
-        <v>47.880024</v>
+        <v>106.755582</v>
       </c>
       <c r="O11">
-        <v>0.9899803616776065</v>
+        <v>0.9972091466993565</v>
       </c>
       <c r="P11">
-        <v>0.9899803616776066</v>
+        <v>0.9972091466993567</v>
       </c>
       <c r="Q11">
-        <v>12.85225396222933</v>
+        <v>17.805336499452</v>
       </c>
       <c r="R11">
-        <v>115.670285660064</v>
+        <v>160.248028495068</v>
       </c>
       <c r="S11">
-        <v>0.004908096916414343</v>
+        <v>0.002930208080767526</v>
       </c>
       <c r="T11">
-        <v>0.004908096916414344</v>
+        <v>0.002930208080767526</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8052786666666667</v>
+        <v>0.500358</v>
       </c>
       <c r="H12">
-        <v>2.415836</v>
+        <v>1.501074</v>
       </c>
       <c r="I12">
-        <v>0.004957771998726472</v>
+        <v>0.002938408748521978</v>
       </c>
       <c r="J12">
-        <v>0.004957771998726472</v>
+        <v>0.002938408748521978</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1175,28 +1175,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.09955433333333334</v>
+        <v>0.093901</v>
       </c>
       <c r="N12">
-        <v>0.298663</v>
+        <v>0.281703</v>
       </c>
       <c r="O12">
-        <v>0.006175237187845165</v>
+        <v>0.002631401590341653</v>
       </c>
       <c r="P12">
-        <v>0.006175237187845166</v>
+        <v>0.002631401590341654</v>
       </c>
       <c r="Q12">
-        <v>0.08016898080755556</v>
+        <v>0.046984116558</v>
       </c>
       <c r="R12">
-        <v>0.721520827268</v>
+        <v>0.422857049022</v>
       </c>
       <c r="S12">
-        <v>3.061541801539316E-05</v>
+        <v>7.73213345393456E-06</v>
       </c>
       <c r="T12">
-        <v>3.061541801539316E-05</v>
+        <v>7.732133453934562E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.8052786666666667</v>
+        <v>0.500358</v>
       </c>
       <c r="H13">
-        <v>2.415836</v>
+        <v>1.501074</v>
       </c>
       <c r="I13">
-        <v>0.004957771998726472</v>
+        <v>0.002938408748521978</v>
       </c>
       <c r="J13">
-        <v>0.004957771998726472</v>
+        <v>0.002938408748521978</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.06197766666666667</v>
+        <v>0.00569</v>
       </c>
       <c r="N13">
-        <v>0.185933</v>
+        <v>0.01707</v>
       </c>
       <c r="O13">
-        <v>0.003844401134548354</v>
+        <v>0.0001594517103017434</v>
       </c>
       <c r="P13">
-        <v>0.003844401134548355</v>
+        <v>0.0001594517103017434</v>
       </c>
       <c r="Q13">
-        <v>0.04990929277644445</v>
+        <v>0.00284703702</v>
       </c>
       <c r="R13">
-        <v>0.4491836349880001</v>
+        <v>0.02562333318</v>
       </c>
       <c r="S13">
-        <v>1.905966429673611E-05</v>
+        <v>4.685343005174348E-07</v>
       </c>
       <c r="T13">
-        <v>1.905966429673611E-05</v>
+        <v>4.685343005174349E-07</v>
       </c>
     </row>
   </sheetData>
